--- a/Gradebook.xlsx
+++ b/Gradebook.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshit/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5BBEA-AF46-8548-B6D8-6E5F1C9210F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Junior Year" sheetId="2" r:id="rId5"/>
-    <sheet name="Senior Year" sheetId="3" r:id="rId6"/>
-    <sheet name="Sophomore Year" sheetId="4" r:id="rId7"/>
-    <sheet name="Freshmen Year" sheetId="5" r:id="rId8"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Junior Year" sheetId="2" r:id="rId2"/>
+    <sheet name="Senior Year" sheetId="3" r:id="rId3"/>
+    <sheet name="Sophomore Year" sheetId="4" r:id="rId4"/>
+    <sheet name="Freshmen Year" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -176,11 +185,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -190,27 +196,20 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -264,56 +263,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,27 +296,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -468,7 +500,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,7 +509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -486,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -560,7 +592,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -568,7 +600,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -586,7 +618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +647,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +672,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +697,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +722,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +747,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +772,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +797,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +822,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -815,7 +847,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,9 +860,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -845,7 +883,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -853,7 +891,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -871,7 +909,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +934,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +959,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +984,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1009,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1034,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1059,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1084,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1109,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1134,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,9 +1147,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1125,7 +1169,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1143,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1216,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1241,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1266,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1291,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,7 +1316,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1341,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1366,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1347,7 +1391,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1416,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,106 +1429,116 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="4" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s" s="5">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s" s="5">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1493,166 +1547,155 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Junior Year'!R1C1" tooltip="" display="Junior Year"/>
-    <hyperlink ref="D12" location="'Senior Year'!R1C1" tooltip="" display="Senior Year"/>
-    <hyperlink ref="D14" location="'Sophomore Year'!R1C1" tooltip="" display="Sophomore Year"/>
-    <hyperlink ref="D16" location="'Freshmen Year'!R1C1" tooltip="" display="Freshmen Year"/>
+    <hyperlink ref="D10" location="'Junior Year'!R1C1" display="Junior Year" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Senior Year'!R1C1" display="Senior Year" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Sophomore Year'!R1C1" display="Sophomore Year" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'Freshmen Year'!R1C1" display="Freshmen Year" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.6719" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="7">
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1660,158 +1703,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.6719" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="7">
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="7">
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>3.75</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="7">
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1819,173 +1862,173 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25" style="12" customWidth="1"/>
-    <col min="3" max="4" width="13.6719" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s" s="7">
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="7">
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="7">
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>3.75</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s" s="7">
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="7">
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1993,188 +2036,188 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25" style="13" customWidth="1"/>
-    <col min="3" max="4" width="13.6719" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" t="s" s="7">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="7">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="7">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="s" s="7">
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="7">
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s" s="7">
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s" s="7">
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="9">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s" s="7">
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" t="s" s="7">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" t="s" s="7">
+      <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>2.5</v>
       </c>
-      <c r="D9" t="s" s="7">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <v>2.5</v>
       </c>
-      <c r="D10" t="s" s="7">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s" s="7">
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
